--- a/excel_templates/plantilla.xlsx
+++ b/excel_templates/plantilla.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t xml:space="preserve">SEDE JALAPA</t>
   </si>
@@ -28,6 +28,33 @@
   </si>
   <si>
     <t>Asignatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Estudio Independiente</t>
+  </si>
+  <si>
+    <t>Numero</t>
+  </si>
+  <si>
+    <t>Contenido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnica de evaluacion</t>
+  </si>
+  <si>
+    <t>Orientacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recursos Bibliograficos</t>
+  </si>
+  <si>
+    <t>Enlace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo de estudio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha entrega</t>
   </si>
   <si>
     <t>Encuentros</t>
@@ -82,7 +109,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11.000000"/>
       <color theme="1"/>
@@ -111,6 +138,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="24.000000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="14.000000"/>
       <color theme="1"/>
@@ -124,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,7 +166,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0"/>
+        <bgColor theme="4" tint="0"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor theme="7" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.049989318521683403"/>
+        <bgColor theme="0" tint="-0.049989318521683403"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
       </patternFill>
     </fill>
     <fill>
@@ -143,12 +200,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor theme="9" tint="0.59999389629810485"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="2" tint="0"/>
         <bgColor theme="2" tint="0"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -157,6 +220,21 @@
       <diagonal style="none"/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -276,63 +354,96 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="35">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="5" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="justify"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="5" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="5" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="3" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="5" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="7" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf fontId="6" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf fontId="6" fillId="9" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
   </cellXfs>
@@ -361,7 +472,7 @@
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2809875" cy="752475"/>
+    <xdr:ext cx="2809874" cy="752474"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="image2.png" title="Imagen"/>
@@ -373,8 +484,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="190500"/>
-          <a:ext cx="2809875" cy="752475"/>
+          <a:off x="0" y="180974"/>
+          <a:ext cx="2809874" cy="752474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -385,6 +496,23 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabla3" ref="$Q$9:$X$21">
+  <autoFilter ref="$Q$9:$X$21"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="Numero"/>
+    <tableColumn id="2" name="Contenido"/>
+    <tableColumn id="3" name="Tecnica de evaluacion"/>
+    <tableColumn id="4" name="Orientacion"/>
+    <tableColumn id="5" name="Recursos Bibliograficos"/>
+    <tableColumn id="6" name="Enlace"/>
+    <tableColumn id="7" name="Tiempo de estudio"/>
+    <tableColumn id="8" name="Fecha entrega"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
@@ -880,24 +1008,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
+    <sheetView topLeftCell="N7" zoomScale="100" workbookViewId="0">
       <selection activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="14.7109375"/>
-    <col customWidth="1" min="3" max="3" width="34.57421875"/>
-    <col customWidth="1" min="4" max="4" width="31.7109375"/>
-    <col customWidth="1" min="5" max="5" width="43.28125"/>
+    <col customWidth="1" min="2" max="2" width="17.7109375"/>
+    <col customWidth="1" min="3" max="3" width="32.28125"/>
+    <col customWidth="1" min="4" max="4" width="50.421875"/>
+    <col customWidth="1" min="5" max="5" width="46.8515625"/>
     <col customWidth="1" min="6" max="6" width="45.8515625"/>
     <col customWidth="1" min="7" max="7" width="45.00390625"/>
     <col customWidth="1" min="8" max="8" width="50.7109375"/>
-    <col customWidth="1" min="10" max="10" width="24"/>
+    <col customWidth="1" min="10" max="10" width="30.57421875"/>
     <col customWidth="1" min="11" max="11" width="28.7109375"/>
-    <col customWidth="1" min="13" max="13" width="15.00390625"/>
+    <col bestFit="1" customWidth="1" min="13" max="13" width="15.140625"/>
     <col customWidth="1" min="14" max="14" width="30.00390625"/>
     <col customWidth="1" min="15" max="15" width="14.7109375"/>
+    <col bestFit="1" min="17" max="17" width="12.140625"/>
+    <col bestFit="1" customWidth="1" min="18" max="18" width="14.57421875"/>
+    <col bestFit="1" customWidth="1" min="19" max="19" width="27.28125"/>
+    <col customWidth="1" min="20" max="20" width="17.00390625"/>
+    <col customWidth="1" min="21" max="21" width="31.00390625"/>
+    <col customWidth="1" min="23" max="23" width="21.140625"/>
+    <col bestFit="1" customWidth="1" min="24" max="24" width="18.57421875"/>
   </cols>
   <sheetData>
     <row r="3" ht="27.75">
@@ -916,285 +1052,398 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" ht="61.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17.25" customHeight="1"/>
-    <row r="9" ht="2.25" hidden="1" customHeight="1"/>
-    <row r="10" ht="41.25" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="8" ht="28.5" customHeight="1">
+      <c r="S8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="X8" s="6"/>
+    </row>
+    <row r="9" ht="41.25" customHeight="1">
+      <c r="Q9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="R9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="S9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="T9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="U9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="V9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="W9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="5" t="s">
+      <c r="X9" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J10" s="6" t="s">
+    </row>
+    <row r="10" ht="45.75" customHeight="1">
+      <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="C10" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="D10" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="7" t="s">
+      <c r="E10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="F10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" ht="87.75" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="14"/>
-      <c r="P11" s="15"/>
-    </row>
-    <row r="12" ht="74.25" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" ht="102.75" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13"/>
-      <c r="O13" s="14"/>
-      <c r="P13" s="15"/>
-    </row>
-    <row r="14" ht="109.5" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="21"/>
-    </row>
-    <row r="15" ht="63.75" customHeight="1">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="14"/>
-      <c r="P15" s="15"/>
-    </row>
-    <row r="16" ht="80.25" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="17"/>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="21"/>
-    </row>
-    <row r="17" ht="102.75" customHeight="1">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13"/>
-      <c r="O17" s="14"/>
-      <c r="P17" s="15"/>
-    </row>
-    <row r="18" ht="104.25" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="21"/>
-    </row>
-    <row r="19" ht="98.25" customHeight="1">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="14"/>
-      <c r="P19" s="15"/>
-    </row>
-    <row r="20" ht="115.5" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="17"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="21"/>
-    </row>
-    <row r="21" ht="97.5" customHeight="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="13"/>
-      <c r="L21" s="13"/>
-      <c r="M21" s="13"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="14"/>
-      <c r="P21" s="15"/>
-    </row>
-    <row r="22" ht="78" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17"/>
-      <c r="C22" s="17"/>
-      <c r="D22" s="17"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="21"/>
-    </row>
-    <row r="23" ht="14.25"/>
+      <c r="H10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O10" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q10" s="14"/>
+      <c r="R10" s="14"/>
+      <c r="S10" s="14"/>
+      <c r="T10" s="14"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="14"/>
+      <c r="W10" s="14"/>
+      <c r="X10" s="14"/>
+    </row>
+    <row r="11" ht="133.5" customHeight="1">
+      <c r="A11" s="15"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="19"/>
+      <c r="P11" s="20"/>
+      <c r="Q11" s="21"/>
+      <c r="R11" s="21"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="21"/>
+      <c r="U11" s="21"/>
+      <c r="V11" s="21"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="21"/>
+    </row>
+    <row r="12" ht="102.75" customHeight="1">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+      <c r="O12" s="26"/>
+      <c r="P12" s="27"/>
+      <c r="Q12" s="28"/>
+      <c r="R12" s="28"/>
+      <c r="S12" s="28"/>
+      <c r="T12" s="28"/>
+      <c r="U12" s="28"/>
+      <c r="V12" s="28"/>
+      <c r="W12" s="28"/>
+      <c r="X12" s="28"/>
+    </row>
+    <row r="13" ht="109.5" customHeight="1">
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="32"/>
+      <c r="L13" s="32"/>
+      <c r="M13" s="32"/>
+      <c r="N13" s="32"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="34"/>
+      <c r="Q13" s="21"/>
+      <c r="R13" s="21"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="21"/>
+      <c r="U13" s="21"/>
+      <c r="V13" s="21"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="21"/>
+    </row>
+    <row r="14" ht="63.75" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="26"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="28"/>
+      <c r="R14" s="28"/>
+      <c r="S14" s="28"/>
+      <c r="T14" s="28"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="28"/>
+      <c r="W14" s="28"/>
+      <c r="X14" s="28"/>
+    </row>
+    <row r="15" ht="80.25" customHeight="1">
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="30"/>
+      <c r="J15" s="31"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="32"/>
+      <c r="M15" s="32"/>
+      <c r="N15" s="32"/>
+      <c r="O15" s="33"/>
+      <c r="P15" s="34"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="21"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="21"/>
+      <c r="U15" s="21"/>
+      <c r="V15" s="21"/>
+      <c r="W15" s="21"/>
+      <c r="X15" s="21"/>
+    </row>
+    <row r="16" ht="102.75" customHeight="1">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="25"/>
+      <c r="O16" s="26"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+    </row>
+    <row r="17" ht="104.25" customHeight="1">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="31"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="32"/>
+      <c r="M17" s="32"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="21"/>
+      <c r="R17" s="21"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="21"/>
+      <c r="U17" s="21"/>
+      <c r="V17" s="21"/>
+      <c r="W17" s="21"/>
+      <c r="X17" s="21"/>
+    </row>
+    <row r="18" ht="98.25" customHeight="1">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="25"/>
+      <c r="O18" s="26"/>
+      <c r="P18" s="27"/>
+      <c r="Q18" s="28"/>
+      <c r="R18" s="28"/>
+      <c r="S18" s="28"/>
+      <c r="T18" s="28"/>
+      <c r="U18" s="28"/>
+      <c r="V18" s="28"/>
+      <c r="W18" s="28"/>
+      <c r="X18" s="28"/>
+    </row>
+    <row r="19" ht="115.5" customHeight="1">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="32"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="21"/>
+      <c r="R19" s="21"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="21"/>
+      <c r="U19" s="21"/>
+      <c r="V19" s="21"/>
+      <c r="W19" s="21"/>
+      <c r="X19" s="21"/>
+    </row>
+    <row r="20" ht="97.5" customHeight="1">
+      <c r="A20" s="22"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="25"/>
+      <c r="N20" s="25"/>
+      <c r="O20" s="26"/>
+      <c r="P20" s="27"/>
+      <c r="Q20" s="28"/>
+      <c r="R20" s="28"/>
+      <c r="S20" s="28"/>
+      <c r="T20" s="28"/>
+      <c r="U20" s="28"/>
+      <c r="V20" s="28"/>
+      <c r="W20" s="28"/>
+      <c r="X20" s="28"/>
+    </row>
+    <row r="21" ht="78" customHeight="1">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="31"/>
+      <c r="K21" s="32"/>
+      <c r="L21" s="32"/>
+      <c r="M21" s="32"/>
+      <c r="N21" s="32"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="28"/>
+      <c r="R21" s="28"/>
+      <c r="S21" s="28"/>
+      <c r="T21" s="28"/>
+      <c r="U21" s="28"/>
+      <c r="V21" s="28"/>
+      <c r="W21" s="28"/>
+      <c r="X21" s="28"/>
+    </row>
+    <row r="22" ht="14.25"/>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/excel_templates/plantilla.xlsx
+++ b/excel_templates/plantilla.xlsx
@@ -16,48 +16,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t xml:space="preserve">SEDE JALAPA</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+  <si>
+    <t xml:space="preserve">UNIVERSIDAD MARTÍN LUTERO SEDE JALAPA</t>
+  </si>
+  <si>
+    <t>Maestro:</t>
+  </si>
+  <si>
+    <t>Codigo:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año Lectivo:</t>
+  </si>
+  <si>
+    <t>PC:</t>
+  </si>
+  <si>
+    <t>Asignatura:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año academico:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total de horas:</t>
+  </si>
+  <si>
+    <t>CR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de la carrera:</t>
+  </si>
+  <si>
+    <t>Trimestre:</t>
+  </si>
+  <si>
+    <t>PR:</t>
   </si>
   <si>
     <t xml:space="preserve">SÍLABO DE ASIGNATURA</t>
   </si>
   <si>
-    <t>Maestro</t>
-  </si>
-  <si>
-    <t>Asignatura</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Estudio Independiente</t>
-  </si>
-  <si>
-    <t>Numero</t>
-  </si>
-  <si>
-    <t>Contenido</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tecnica de evaluacion</t>
-  </si>
-  <si>
-    <t>Orientacion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Recursos Bibliograficos</t>
-  </si>
-  <si>
-    <t>Enlace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiempo de estudio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fecha entrega</t>
-  </si>
-  <si>
-    <t>Encuentros</t>
+    <t xml:space="preserve">N° Encuentro</t>
   </si>
   <si>
     <t>Fecha</t>
@@ -103,6 +103,57 @@
   </si>
   <si>
     <t xml:space="preserve">H P</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GUIA DE ESTUDIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° de Guia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N° de unidad2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre de la unidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Obgetivo Actitudinal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contenido Temático</t>
+  </si>
+  <si>
+    <t>Actividades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instrumento de evaluación cuaderno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. de evaluación Organizador gráfico </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. de evaluación Diario de trabajo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I. de evaluación Prueba escrita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criterios de evaluación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiempo en minutos</t>
+  </si>
+  <si>
+    <t>Recursos</t>
+  </si>
+  <si>
+    <t>Puntaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluación sumativa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha de Entrega</t>
   </si>
 </sst>
 </file>
@@ -132,32 +183,31 @@
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="14.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="24.000000"/>
+      <sz val="14.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="14.000000"/>
+      <sz val="20.000000"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.000000"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
+      <b/>
+      <color theme="0" tint="0"/>
+      <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -166,52 +216,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0"/>
-        <bgColor theme="4" tint="0"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.39997558519241921"/>
-        <bgColor theme="7" tint="0.39997558519241921"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.049989318521683403"/>
-        <bgColor theme="0" tint="-0.049989318521683403"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor theme="9" tint="0.59999389629810485"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="0"/>
-        <bgColor theme="2" tint="0"/>
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor theme="4" tint="-0.249977111117893"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left style="none"/>
       <right style="none"/>
@@ -220,21 +235,6 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -293,7 +293,7 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -314,137 +314,61 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="none"/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <top style="none"/>
+      <bottom style="none"/>
       <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="19">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
     <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
     <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="5" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="3" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf fontId="3" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
+    <xf fontId="3" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify" wrapText="1"/>
+    <xf fontId="3" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="5" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="justify"/>
+    <xf fontId="3" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf fontId="3" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="justify"/>
     </xf>
-    <xf fontId="6" fillId="5" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top"/>
     </xf>
-    <xf fontId="6" fillId="5" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    <xf fontId="6" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="5" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    <xf fontId="6" fillId="3" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="5" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
+    <xf fontId="6" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf fontId="6" fillId="5" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf fontId="6" fillId="6" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="7" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf fontId="6" fillId="8" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf fontId="6" fillId="9" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="justify"/>
+    <xf fontId="6" fillId="3" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -468,11 +392,11 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:colOff>19048</xdr:colOff>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2809874" cy="752474"/>
+    <xdr:ext cx="2809872" cy="752472"/>
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="2" name="image2.png" title="Imagen"/>
@@ -484,8 +408,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="0" y="180974"/>
-          <a:ext cx="2809874" cy="752474"/>
+          <a:off x="19048" y="0"/>
+          <a:ext cx="2809872" cy="752472"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -499,19 +423,55 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabla3" ref="$Q$9:$X$21">
-  <autoFilter ref="$Q$9:$X$21"/>
-  <tableColumns count="8">
-    <tableColumn id="1" name="Numero"/>
-    <tableColumn id="2" name="Contenido"/>
-    <tableColumn id="3" name="Tecnica de evaluacion"/>
-    <tableColumn id="4" name="Orientacion"/>
-    <tableColumn id="5" name="Recursos Bibliograficos"/>
-    <tableColumn id="6" name="Enlace"/>
-    <tableColumn id="7" name="Tiempo de estudio"/>
-    <tableColumn id="8" name="Fecha entrega"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" displayName="Tabla1" ref="$A$26:$S$36">
+  <autoFilter ref="$A$26:$S$36"/>
+  <tableColumns count="19">
+    <tableColumn id="1" name="N° de Guia"/>
+    <tableColumn id="2" name="Fecha"/>
+    <tableColumn id="3" name="N° de unidad2"/>
+    <tableColumn id="4" name="Nombre de la unidad"/>
+    <tableColumn id="5" name="Objetivo Procedimental"/>
+    <tableColumn id="6" name="Objetivo Conceptual"/>
+    <tableColumn id="7" name="Obgetivo Actitudinal"/>
+    <tableColumn id="8" name="Contenido Temático"/>
+    <tableColumn id="9" name="Actividades"/>
+    <tableColumn id="10" name="Instrumento de evaluación cuaderno"/>
+    <tableColumn id="11" name="I. de evaluación Organizador gráfico "/>
+    <tableColumn id="12" name="I. de evaluación Diario de trabajo"/>
+    <tableColumn id="13" name="I. de evaluación Prueba escrita"/>
+    <tableColumn id="14" name="Criterios de evaluación"/>
+    <tableColumn id="15" name="Tiempo en minutos"/>
+    <tableColumn id="16" name="Recursos"/>
+    <tableColumn id="17" name="Puntaje"/>
+    <tableColumn id="18" name="Evaluación sumativa"/>
+    <tableColumn id="19" name="Fecha de Entrega"/>
   </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" displayName="Tabla2" ref="$A$10:$P$21">
+  <autoFilter ref="$A$10:$P$21"/>
+  <tableColumns count="16">
+    <tableColumn id="1" name="N° Encuentro"/>
+    <tableColumn id="2" name="Fecha"/>
+    <tableColumn id="3" name="Objetivo Conceptual"/>
+    <tableColumn id="4" name="Objetivo Procedimental"/>
+    <tableColumn id="5" name="Objetivo Actitudinal"/>
+    <tableColumn id="6" name="Primer Momentos didácticos"/>
+    <tableColumn id="7" name="Segundo Momentos didácticos"/>
+    <tableColumn id="8" name="Terser Momentos didácticos"/>
+    <tableColumn id="9" name="Unidad"/>
+    <tableColumn id="10" name="Contenido temático"/>
+    <tableColumn id="11" name="Forma organizativa de la enseñanza"/>
+    <tableColumn id="12" name="Tiempo"/>
+    <tableColumn id="13" name="Técnicas de aprendizaje"/>
+    <tableColumn id="14" name="Descripción de la estrategia de aprendizaje"/>
+    <tableColumn id="15" name="Eje transversal"/>
+    <tableColumn id="16" name="H P"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1008,25 +968,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView topLeftCell="N7" zoomScale="100" workbookViewId="0">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="D26" activeCellId="0" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.7109375"/>
-    <col customWidth="1" min="2" max="2" width="17.7109375"/>
+    <col bestFit="1" customWidth="1" min="1" max="1" width="15.421875"/>
+    <col customWidth="1" min="2" max="2" width="22.00390625"/>
     <col customWidth="1" min="3" max="3" width="32.28125"/>
-    <col customWidth="1" min="4" max="4" width="50.421875"/>
-    <col customWidth="1" min="5" max="5" width="46.8515625"/>
-    <col customWidth="1" min="6" max="6" width="45.8515625"/>
-    <col customWidth="1" min="7" max="7" width="45.00390625"/>
+    <col customWidth="1" min="4" max="4" width="36.421875"/>
+    <col customWidth="1" min="5" max="5" width="35.8515625"/>
+    <col customWidth="1" min="6" max="6" width="36.421875"/>
+    <col customWidth="1" min="7" max="7" width="37.7109375"/>
     <col customWidth="1" min="8" max="8" width="50.7109375"/>
+    <col bestFit="1" min="9" max="9" width="14.8515625"/>
     <col customWidth="1" min="10" max="10" width="30.57421875"/>
-    <col customWidth="1" min="11" max="11" width="28.7109375"/>
-    <col bestFit="1" customWidth="1" min="13" max="13" width="15.140625"/>
-    <col customWidth="1" min="14" max="14" width="30.00390625"/>
-    <col customWidth="1" min="15" max="15" width="14.7109375"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="32.140625"/>
+    <col customWidth="1" min="12" max="12" width="20.57421875"/>
+    <col customWidth="1" min="13" max="13" width="18.8515625"/>
+    <col bestFit="1" customWidth="1" min="14" max="14" width="30.7109375"/>
+    <col bestFit="1" customWidth="1" min="15" max="15" width="15.8515625"/>
+    <col bestFit="1" min="16" max="16" width="14.140625"/>
     <col bestFit="1" min="17" max="17" width="12.140625"/>
     <col bestFit="1" customWidth="1" min="18" max="18" width="14.57421875"/>
     <col bestFit="1" customWidth="1" min="19" max="19" width="27.28125"/>
@@ -1036,414 +999,609 @@
     <col bestFit="1" customWidth="1" min="24" max="24" width="18.57421875"/>
   </cols>
   <sheetData>
+    <row r="2" ht="27.75">
+      <c r="D2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="3" ht="27.75">
-      <c r="H3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="J3" s="1" t="s">
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+    </row>
+    <row r="4" ht="27.75">
+      <c r="D4" s="1"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="24.75" customHeight="1">
+      <c r="A5" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" ht="21">
-      <c r="H4" s="2"/>
-    </row>
-    <row r="6">
+      <c r="B5" s="4"/>
+      <c r="C5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" ht="61.5" customHeight="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="5"/>
+      <c r="G6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" ht="34.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="28.5" customHeight="1">
-      <c r="S8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="X8" s="6"/>
-    </row>
+        <v>9</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="5"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" ht="28.5" customHeight="1"/>
     <row r="9" ht="41.25" customHeight="1">
-      <c r="Q9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="R9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="S9" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="T9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="U9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="V9" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="W9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="X9" s="7" t="s">
+      <c r="D9" s="6" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="10" ht="45.75" customHeight="1">
-      <c r="A10" s="8" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="9" t="s">
+      <c r="I10" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="10" t="s">
+      <c r="J10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="K10" s="11" t="s">
+      <c r="K10" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="L10" s="11" t="s">
+      <c r="L10" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="O10" s="12" t="s">
+      <c r="O10" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="P10" s="13" t="s">
+      <c r="P10" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="Q10" s="14"/>
-      <c r="R10" s="14"/>
-      <c r="S10" s="14"/>
-      <c r="T10" s="14"/>
-      <c r="U10" s="14"/>
-      <c r="V10" s="14"/>
-      <c r="W10" s="14"/>
-      <c r="X10" s="14"/>
     </row>
     <row r="11" ht="133.5" customHeight="1">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="19"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="21"/>
-      <c r="R11" s="21"/>
-      <c r="S11" s="21"/>
-      <c r="T11" s="21"/>
-      <c r="U11" s="21"/>
-      <c r="V11" s="21"/>
-      <c r="W11" s="21"/>
-      <c r="X11" s="21"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
+      <c r="P11" s="14"/>
     </row>
     <row r="12" ht="102.75" customHeight="1">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="27"/>
-      <c r="Q12" s="28"/>
-      <c r="R12" s="28"/>
-      <c r="S12" s="28"/>
-      <c r="T12" s="28"/>
-      <c r="U12" s="28"/>
-      <c r="V12" s="28"/>
-      <c r="W12" s="28"/>
-      <c r="X12" s="28"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="14"/>
+      <c r="M12" s="14"/>
+      <c r="N12" s="14"/>
+      <c r="O12" s="14"/>
+      <c r="P12" s="14"/>
     </row>
     <row r="13" ht="109.5" customHeight="1">
-      <c r="A13" s="29"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="32"/>
-      <c r="L13" s="32"/>
-      <c r="M13" s="32"/>
-      <c r="N13" s="32"/>
-      <c r="O13" s="33"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="21"/>
-      <c r="R13" s="21"/>
-      <c r="S13" s="21"/>
-      <c r="T13" s="21"/>
-      <c r="U13" s="21"/>
-      <c r="V13" s="21"/>
-      <c r="W13" s="21"/>
-      <c r="X13" s="21"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14"/>
+      <c r="M13" s="14"/>
+      <c r="N13" s="14"/>
+      <c r="O13" s="14"/>
+      <c r="P13" s="14"/>
     </row>
     <row r="14" ht="63.75" customHeight="1">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="28"/>
-      <c r="R14" s="28"/>
-      <c r="S14" s="28"/>
-      <c r="T14" s="28"/>
-      <c r="U14" s="28"/>
-      <c r="V14" s="28"/>
-      <c r="W14" s="28"/>
-      <c r="X14" s="28"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="14"/>
+      <c r="M14" s="14"/>
+      <c r="N14" s="14"/>
+      <c r="O14" s="14"/>
+      <c r="P14" s="14"/>
     </row>
     <row r="15" ht="80.25" customHeight="1">
-      <c r="A15" s="29"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="30"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="21"/>
-      <c r="S15" s="21"/>
-      <c r="T15" s="21"/>
-      <c r="U15" s="21"/>
-      <c r="V15" s="21"/>
-      <c r="W15" s="21"/>
-      <c r="X15" s="21"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="14"/>
+      <c r="M15" s="14"/>
+      <c r="N15" s="14"/>
+      <c r="O15" s="14"/>
+      <c r="P15" s="14"/>
     </row>
     <row r="16" ht="102.75" customHeight="1">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="25"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="25"/>
-      <c r="O16" s="26"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
+      <c r="A16" s="13"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+      <c r="J16" s="14"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="14"/>
+      <c r="M16" s="14"/>
+      <c r="N16" s="14"/>
+      <c r="O16" s="14"/>
+      <c r="P16" s="14"/>
     </row>
     <row r="17" ht="104.25" customHeight="1">
-      <c r="A17" s="29"/>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="32"/>
-      <c r="L17" s="32"/>
-      <c r="M17" s="32"/>
-      <c r="N17" s="32"/>
-      <c r="O17" s="33"/>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="21"/>
-      <c r="R17" s="21"/>
-      <c r="S17" s="21"/>
-      <c r="T17" s="21"/>
-      <c r="U17" s="21"/>
-      <c r="V17" s="21"/>
-      <c r="W17" s="21"/>
-      <c r="X17" s="21"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="14"/>
+      <c r="M17" s="14"/>
+      <c r="N17" s="14"/>
+      <c r="O17" s="14"/>
+      <c r="P17" s="14"/>
     </row>
     <row r="18" ht="98.25" customHeight="1">
-      <c r="A18" s="22"/>
-      <c r="B18" s="23"/>
-      <c r="C18" s="23"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="25"/>
-      <c r="M18" s="25"/>
-      <c r="N18" s="25"/>
-      <c r="O18" s="26"/>
-      <c r="P18" s="27"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="28"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="28"/>
-      <c r="U18" s="28"/>
-      <c r="V18" s="28"/>
-      <c r="W18" s="28"/>
-      <c r="X18" s="28"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="14"/>
+      <c r="N18" s="14"/>
+      <c r="O18" s="14"/>
+      <c r="P18" s="14"/>
     </row>
     <row r="19" ht="115.5" customHeight="1">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="31"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="32"/>
-      <c r="N19" s="32"/>
-      <c r="O19" s="33"/>
-      <c r="P19" s="34"/>
-      <c r="Q19" s="21"/>
-      <c r="R19" s="21"/>
-      <c r="S19" s="21"/>
-      <c r="T19" s="21"/>
-      <c r="U19" s="21"/>
-      <c r="V19" s="21"/>
-      <c r="W19" s="21"/>
-      <c r="X19" s="21"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14"/>
+      <c r="J19" s="14"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="14"/>
+      <c r="M19" s="14"/>
+      <c r="N19" s="14"/>
+      <c r="O19" s="14"/>
+      <c r="P19" s="14"/>
     </row>
     <row r="20" ht="97.5" customHeight="1">
-      <c r="A20" s="22"/>
-      <c r="B20" s="23"/>
-      <c r="C20" s="23"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="25"/>
-      <c r="M20" s="25"/>
-      <c r="N20" s="25"/>
-      <c r="O20" s="26"/>
-      <c r="P20" s="27"/>
-      <c r="Q20" s="28"/>
-      <c r="R20" s="28"/>
-      <c r="S20" s="28"/>
-      <c r="T20" s="28"/>
-      <c r="U20" s="28"/>
-      <c r="V20" s="28"/>
-      <c r="W20" s="28"/>
-      <c r="X20" s="28"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="14"/>
+      <c r="J20" s="14"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="14"/>
+      <c r="M20" s="14"/>
+      <c r="N20" s="14"/>
+      <c r="O20" s="14"/>
+      <c r="P20" s="14"/>
     </row>
     <row r="21" ht="78" customHeight="1">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="31"/>
-      <c r="K21" s="32"/>
-      <c r="L21" s="32"/>
-      <c r="M21" s="32"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="28"/>
-      <c r="R21" s="28"/>
-      <c r="S21" s="28"/>
-      <c r="T21" s="28"/>
-      <c r="U21" s="28"/>
-      <c r="V21" s="28"/>
-      <c r="W21" s="28"/>
-      <c r="X21" s="28"/>
+      <c r="A21" s="13"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="14"/>
+      <c r="J21" s="14"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="14"/>
+      <c r="M21" s="14"/>
+      <c r="N21" s="14"/>
+      <c r="O21" s="14"/>
+      <c r="P21" s="14"/>
     </row>
     <row r="22" ht="14.25"/>
+    <row r="25" ht="27.75">
+      <c r="D25" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" ht="57" customHeight="1">
+      <c r="A26" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I26" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J26" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L26" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N26" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="O26" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P26" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q26" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="R26" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="S26" s="18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" ht="43.5" customHeight="1">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="14"/>
+      <c r="J27" s="14"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="14"/>
+      <c r="M27" s="14"/>
+      <c r="N27" s="14"/>
+      <c r="O27" s="14"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="14"/>
+      <c r="R27" s="14"/>
+      <c r="S27" s="14"/>
+    </row>
+    <row r="28" ht="74.25" customHeight="1">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="14"/>
+      <c r="J28" s="14"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="14"/>
+      <c r="M28" s="14"/>
+      <c r="N28" s="14"/>
+      <c r="O28" s="14"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="14"/>
+      <c r="R28" s="14"/>
+      <c r="S28" s="14"/>
+    </row>
+    <row r="29" ht="75.75" customHeight="1">
+      <c r="A29" s="13"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="14"/>
+      <c r="J29" s="14"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="14"/>
+      <c r="N29" s="14"/>
+      <c r="O29" s="14"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="14"/>
+      <c r="R29" s="14"/>
+      <c r="S29" s="14"/>
+    </row>
+    <row r="30" ht="46.5" customHeight="1">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="14"/>
+      <c r="N30" s="14"/>
+      <c r="O30" s="14"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="14"/>
+      <c r="R30" s="14"/>
+      <c r="S30" s="14"/>
+    </row>
+    <row r="31" ht="76.5" customHeight="1">
+      <c r="A31" s="13"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="14"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="14"/>
+      <c r="J31" s="14"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="14"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="14"/>
+      <c r="R31" s="14"/>
+      <c r="S31" s="14"/>
+    </row>
+    <row r="32" ht="67.5" customHeight="1">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="14"/>
+      <c r="J32" s="14"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="14"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="14"/>
+      <c r="R32" s="14"/>
+      <c r="S32" s="14"/>
+    </row>
+    <row r="33" ht="72" customHeight="1">
+      <c r="A33" s="13"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="14"/>
+      <c r="F33" s="14"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="14"/>
+      <c r="I33" s="14"/>
+      <c r="J33" s="14"/>
+      <c r="K33" s="14"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="14"/>
+      <c r="N33" s="14"/>
+      <c r="O33" s="14"/>
+      <c r="P33" s="14"/>
+      <c r="Q33" s="14"/>
+      <c r="R33" s="14"/>
+      <c r="S33" s="14"/>
+    </row>
+    <row r="34" ht="66" customHeight="1">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="14"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="14"/>
+      <c r="F34" s="14"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="14"/>
+      <c r="I34" s="14"/>
+      <c r="J34" s="14"/>
+      <c r="K34" s="14"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="14"/>
+      <c r="N34" s="14"/>
+      <c r="O34" s="14"/>
+      <c r="P34" s="14"/>
+      <c r="Q34" s="14"/>
+      <c r="R34" s="14"/>
+      <c r="S34" s="14"/>
+    </row>
+    <row r="35" ht="63.75" customHeight="1">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="14"/>
+      <c r="F35" s="14"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="14"/>
+      <c r="I35" s="14"/>
+      <c r="J35" s="14"/>
+      <c r="K35" s="14"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="14"/>
+      <c r="N35" s="14"/>
+      <c r="O35" s="14"/>
+      <c r="P35" s="14"/>
+      <c r="Q35" s="14"/>
+      <c r="R35" s="14"/>
+      <c r="S35" s="14"/>
+    </row>
+    <row r="36" ht="64.5" customHeight="1">
+      <c r="A36" s="13"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="14"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="14"/>
+      <c r="I36" s="14"/>
+      <c r="J36" s="14"/>
+      <c r="K36" s="14"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="14"/>
+      <c r="N36" s="14"/>
+      <c r="O36" s="14"/>
+      <c r="P36" s="14"/>
+      <c r="Q36" s="14"/>
+      <c r="R36" s="14"/>
+      <c r="S36" s="14"/>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
   <drawing r:id="rId1"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>